--- a/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -547,27 +547,27 @@
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
+          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
+          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
+          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
         </is>
       </c>
       <c r="B37" s="65">
@@ -577,37 +577,37 @@
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
+          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Fraude De Subvenciones Art 470 N°8</t>
+          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
+          <t xml:space="preserve">Fraude De Subvenciones Art 470 N°8</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Fraudes Trans. Electró. Art. 7°, Inciso Final, Ley N° 20.009</t>
+          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
         </is>
       </c>
       <c r="B41" s="65">
@@ -617,67 +617,67 @@
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
+          <t xml:space="preserve">Fraudes Trans. Electró. Art. 7°, Inciso Final, Ley N° 20.009</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Giro Dol Cheq. (Cuent Cerr) Ac. Penal Priv Art. 22. Dfl 707</t>
+          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Giro Doloso De Cheques  Ac. Penal Püblica Art. 42. Dfl 707</t>
+          <t xml:space="preserve">Giro Dol Cheq. (Cuent Cerr) Ac. Penal Priv Art. 22. Dfl 707</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Giro Doloso De Cheques  Ac. Penal Püblica Art. 42. Dfl 707</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B48" s="65">
@@ -687,97 +687,97 @@
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B49" s="65">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Hurto Simple.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B50" s="65">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Incendio C/Peligro Para Las Personas Arts.475 Y 476 N01 Y 2</t>
+          <t xml:space="preserve">Hurto Simple.</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
+          <t xml:space="preserve">Incendio C/Peligro Para Las Personas Arts.475 Y 476 N01 Y 2</t>
         </is>
       </c>
       <c r="B52" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Infracciones A La Seguridad Social.</t>
+          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
+          <t xml:space="preserve">Infracciones A La Seguridad Social.</t>
         </is>
       </c>
       <c r="B54" s="65">
-        <v>441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
         </is>
       </c>
       <c r="B55" s="65">
-        <v>7</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Injurias Y Calumnias Por Medios De Comunicacion Social.</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Interrumpir Libre Circulación (Ley 21208 Inc 1)</t>
+          <t xml:space="preserve">Injurias Y Calumnias Por Medios De Comunicacion Social.</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Lavado De Dinero Persona Natural Art. 27  Ley 19.913</t>
+          <t xml:space="preserve">Interrumpir Libre Circulación (Ley 21208 Inc 1)</t>
         </is>
       </c>
       <c r="B58" s="65">
@@ -787,97 +787,97 @@
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Lavado De Dinero Persona Natural Art. 27  Ley 19.913</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B62" s="65">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
         </is>
       </c>
       <c r="B63" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B64" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B67" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Negociacion Incompatible.</t>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
         </is>
       </c>
       <c r="B68" s="65">
@@ -887,7 +887,7 @@
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
+          <t xml:space="preserve">Negociacion Incompatible.</t>
         </is>
       </c>
       <c r="B69" s="65">
@@ -897,57 +897,57 @@
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
+          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
         </is>
       </c>
       <c r="B75" s="65">
@@ -957,17 +957,17 @@
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
         </is>
       </c>
       <c r="B77" s="65">
@@ -977,17 +977,17 @@
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
         </is>
       </c>
       <c r="B79" s="65">
@@ -997,217 +997,217 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Quebrantamiento.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Propagar Contagio A Sabiendas</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Quebrantamiento.</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B91" s="65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
         </is>
       </c>
       <c r="B94" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Sabotaje Informático.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Secuestro</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B98" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Soborno.art. 250. Persona  Juridica</t>
+          <t xml:space="preserve">Sabotaje Informático.</t>
         </is>
       </c>
       <c r="B99" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Secuestro</t>
         </is>
       </c>
       <c r="B100" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">Trafico De Influencias.</t>
+          <t xml:space="preserve">Soborno.art. 250. Persona  Juridica</t>
         </is>
       </c>
       <c r="B101" s="65">
@@ -1217,80 +1217,100 @@
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B102" s="65">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Influencias.</t>
         </is>
       </c>
       <c r="B103" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Tratos Degradantes A Personas Vulnerables. Art. 403 Ter.</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B104" s="65">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B105" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Tratos Degradantes A Personas Vulnerables. Art. 403 Ter.</t>
         </is>
       </c>
       <c r="B106" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B107" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">Violacion De Secretos.</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B108" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
+          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B109" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c t="inlineStr" r="A110">
+        <is>
+          <t xml:space="preserve">Violacion De Secretos.</t>
+        </is>
+      </c>
+      <c r="B110" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c t="inlineStr" r="A111">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B109" s="65">
+      <c r="B111" s="65">
         <v>1</v>
       </c>
     </row>
